--- a/myInfo/icd10_to_CAUSE.xlsx
+++ b/myInfo/icd10_to_CAUSE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myCCB\myInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arikhalameyzer/Desktop/CDPH/Project/Project &amp; R/120_years_of_death/myInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08B9871-EFC3-AF4E-9237-03D6E212D0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$W$226</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -40,14 +42,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dauphine, David (CDPH-CHSI-PHPRB)</author>
     <author>Matt</author>
     <author>Dauphine, David (CDPH-CHSI)</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="1" shapeId="0">
+    <comment ref="C57" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R126" authorId="2" shapeId="0">
+    <comment ref="R126" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -4684,11 +4686,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0.;###0."/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5246,7 +5248,7 @@
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="28" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5469,6 +5471,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5504,6 +5523,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5679,45 +5715,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W234"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B145" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G156" sqref="G156"/>
+      <selection pane="bottomRight" activeCell="M111" sqref="M111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="35.140625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="44" customWidth="1"/>
+    <col min="1" max="1" width="35.1640625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="44" customWidth="1"/>
     <col min="3" max="3" width="26" style="42" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="52" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" style="51" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="52" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="46" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="16" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="52" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" style="51" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" style="52" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="52" customWidth="1"/>
     <col min="10" max="10" width="8" style="52" customWidth="1"/>
-    <col min="11" max="11" width="29.28515625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="29.33203125" style="16" customWidth="1"/>
     <col min="12" max="12" width="10" style="46" customWidth="1"/>
     <col min="13" max="13" width="28" style="16" customWidth="1"/>
-    <col min="14" max="14" width="38.140625" style="16" customWidth="1"/>
-    <col min="15" max="15" width="27.5703125" style="16" customWidth="1"/>
-    <col min="16" max="16" width="71.28515625" style="16" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" style="61" customWidth="1"/>
-    <col min="18" max="18" width="35.140625" style="61" customWidth="1"/>
-    <col min="19" max="19" width="62.140625" style="70" customWidth="1"/>
-    <col min="20" max="20" width="40.7109375" style="70" customWidth="1"/>
-    <col min="21" max="21" width="50.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="50.85546875" style="44" customWidth="1"/>
-    <col min="23" max="23" width="50.42578125" style="44" customWidth="1"/>
-    <col min="24" max="16384" width="8.85546875" style="44"/>
+    <col min="14" max="14" width="38.1640625" style="16" customWidth="1"/>
+    <col min="15" max="15" width="27.5" style="16" customWidth="1"/>
+    <col min="16" max="16" width="71.33203125" style="16" customWidth="1"/>
+    <col min="17" max="17" width="16.5" style="61" customWidth="1"/>
+    <col min="18" max="18" width="35.1640625" style="61" customWidth="1"/>
+    <col min="19" max="19" width="62.1640625" style="70" customWidth="1"/>
+    <col min="20" max="20" width="40.6640625" style="70" customWidth="1"/>
+    <col min="21" max="21" width="50.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="50.83203125" style="44" customWidth="1"/>
+    <col min="23" max="23" width="50.5" style="44" customWidth="1"/>
+    <col min="24" max="16384" width="8.83203125" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="74.25" customHeight="1">
       <c r="A1" s="42" t="s">
         <v>1150</v>
       </c>
@@ -5788,7 +5824,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="15">
       <c r="A2" s="42" t="str">
         <f>CONCATENATE(".",U2)</f>
         <v>.All CAUSES</v>
@@ -5831,7 +5867,7 @@
       </c>
       <c r="W2" s="6"/>
     </row>
-    <row r="3" spans="1:23" ht="41.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="40">
       <c r="A3" s="42" t="str">
         <f t="shared" ref="A3:A65" si="0">IF(J3&lt;&gt;"",IF(H3&lt;&gt;"",CONCATENATE("....",F3,".",G3,".",H3,". - ",D3),IF(G3&lt;&gt;"",CONCATENATE("...",F3,".",G3,". - ",D3),CONCATENATE("..",F3,". - ",D3))),"")</f>
         <v>..A. - Communicable, maternal, perinatal and nutritional conditions</v>
@@ -5882,7 +5918,7 @@
       </c>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="30">
       <c r="A4" s="42" t="str">
         <f t="shared" si="0"/>
         <v>...A.99. - Other Infectious Diseases/Nutritional Deficiencies</v>
@@ -5925,7 +5961,7 @@
       <c r="V4" s="43"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="24">
       <c r="A5" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5973,7 +6009,7 @@
       </c>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="15">
       <c r="A6" s="42" t="str">
         <f t="shared" si="0"/>
         <v>...A.01. - Tuberculosis</v>
@@ -6031,7 +6067,7 @@
       </c>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="30">
       <c r="A7" s="42" t="str">
         <f t="shared" si="0"/>
         <v>...A.02. - HIV/ and other Sexually transmitted diseases (STDs)</v>
@@ -6074,7 +6110,7 @@
       <c r="V7" s="43"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="30">
       <c r="A8" s="42" t="str">
         <f t="shared" si="0"/>
         <v>....A.02.a. - Sexually transmitted diseases (STDs) excluding HIV</v>
@@ -6135,7 +6171,7 @@
       </c>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="15">
       <c r="A9" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6192,7 +6228,7 @@
       </c>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="15">
       <c r="A10" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6249,7 +6285,7 @@
       </c>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="15">
       <c r="A11" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6306,7 +6342,7 @@
       </c>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="15">
       <c r="A12" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6361,7 +6397,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="15">
       <c r="A13" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6418,7 +6454,7 @@
       </c>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="15">
       <c r="A14" s="42" t="str">
         <f t="shared" si="0"/>
         <v>....A.02.b. - HIV/AIDS</v>
@@ -6477,7 +6513,7 @@
       </c>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="15">
       <c r="A15" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6530,7 +6566,7 @@
       </c>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="15">
       <c r="A16" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6587,7 +6623,7 @@
       </c>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="15">
       <c r="A17" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6642,7 +6678,7 @@
       </c>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="15">
       <c r="A18" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6691,7 +6727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="15">
       <c r="A19" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6746,7 +6782,7 @@
       </c>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="15">
       <c r="A20" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6801,7 +6837,7 @@
       </c>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="15">
       <c r="A21" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6856,7 +6892,7 @@
       </c>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="15">
       <c r="A22" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6911,7 +6947,7 @@
       </c>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="15">
       <c r="A23" s="42" t="str">
         <f t="shared" si="0"/>
         <v>...A.04. - Meningitis</v>
@@ -6969,7 +7005,7 @@
       </c>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="15">
       <c r="A24" s="42" t="str">
         <f t="shared" si="0"/>
         <v>...A.05. - Encephalitis</v>
@@ -7027,7 +7063,7 @@
       </c>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="15">
       <c r="A25" s="42" t="str">
         <f t="shared" si="0"/>
         <v>...A.06. - Hepatitis</v>
@@ -7073,7 +7109,7 @@
       </c>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="15">
       <c r="A26" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7124,7 +7160,7 @@
       </c>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="30">
       <c r="A27" s="42" t="str">
         <f t="shared" si="0"/>
         <v>....A.06.a. - Acute hepatitis B</v>
@@ -7180,7 +7216,7 @@
       </c>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="15">
       <c r="A28" s="42" t="str">
         <f t="shared" si="0"/>
         <v>....A.06.b. - Acute hepatitis C</v>
@@ -7236,7 +7272,7 @@
       </c>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="15">
       <c r="A29" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7287,7 +7323,7 @@
       </c>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:23" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="20">
       <c r="A30" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7335,7 +7371,7 @@
       </c>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="15">
       <c r="A31" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7390,7 +7426,7 @@
       </c>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="15">
       <c r="A32" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7445,7 +7481,7 @@
       </c>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="15">
       <c r="A33" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7500,7 +7536,7 @@
       </c>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="15">
       <c r="A34" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7555,7 +7591,7 @@
       </c>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="15">
       <c r="A35" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7610,7 +7646,7 @@
       </c>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="15">
       <c r="A36" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7661,7 +7697,7 @@
       </c>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="15">
       <c r="A37" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7712,7 +7748,7 @@
       </c>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="15">
       <c r="A38" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7767,7 +7803,7 @@
       </c>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="15">
       <c r="A39" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7822,7 +7858,7 @@
       </c>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="15">
       <c r="A40" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7873,7 +7909,7 @@
       </c>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="15">
       <c r="A41" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7928,7 +7964,7 @@
       </c>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="15">
       <c r="A42" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7979,7 +8015,7 @@
       </c>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="15">
       <c r="A43" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8034,7 +8070,7 @@
       </c>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="15">
       <c r="A44" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8089,7 +8125,7 @@
       </c>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="15">
       <c r="A45" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8141,7 +8177,7 @@
       </c>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="15">
       <c r="A46" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8196,7 +8232,7 @@
       </c>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="15">
       <c r="A47" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8247,7 +8283,7 @@
       </c>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="15">
       <c r="A48" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8298,7 +8334,7 @@
       </c>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="15">
       <c r="A49" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8349,7 +8385,7 @@
       </c>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" ht="102" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="90">
       <c r="A50" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8412,7 +8448,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="15">
       <c r="A51" s="42" t="str">
         <f t="shared" si="0"/>
         <v>...A.07. - Respiratory infections</v>
@@ -8469,7 +8505,7 @@
       </c>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="15">
       <c r="A52" s="42" t="str">
         <f t="shared" si="0"/>
         <v>....A.07.a. - Lower respiratory infections</v>
@@ -8535,7 +8571,7 @@
       </c>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="15">
       <c r="A53" s="42" t="str">
         <f t="shared" si="0"/>
         <v>....A.07.b. - Upper respiratory infections</v>
@@ -8601,7 +8637,7 @@
       </c>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="15">
       <c r="A54" s="42" t="str">
         <f t="shared" si="0"/>
         <v>...A.10. - COVID-19</v>
@@ -8645,7 +8681,7 @@
       <c r="V54" s="43"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="15">
       <c r="A55" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8706,7 +8742,7 @@
       </c>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="15">
       <c r="A56" s="42" t="str">
         <f t="shared" si="0"/>
         <v>...A.08. - Maternal conditions</v>
@@ -8765,7 +8801,7 @@
       </c>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="45">
       <c r="A57" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8828,7 +8864,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="15">
       <c r="A58" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8889,7 +8925,7 @@
       </c>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" ht="45">
       <c r="A59" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8952,7 +8988,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" ht="15">
       <c r="A60" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9013,7 +9049,7 @@
       </c>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" ht="30">
       <c r="A61" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9074,7 +9110,7 @@
       </c>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" ht="30">
       <c r="A62" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9135,7 +9171,7 @@
       </c>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" ht="16">
       <c r="A63" s="42" t="str">
         <f t="shared" si="0"/>
         <v>...A.09. - Neonatal conditions</v>
@@ -9194,7 +9230,7 @@
       </c>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="15">
       <c r="A64" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9249,7 +9285,7 @@
       </c>
       <c r="W64" s="2"/>
     </row>
-    <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="15">
       <c r="A65" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9304,7 +9340,7 @@
       </c>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" ht="15">
       <c r="A66" s="42" t="str">
         <f t="shared" ref="A66:A126" si="6">IF(J66&lt;&gt;"",IF(H66&lt;&gt;"",CONCATENATE("....",F66,".",G66,".",H66,". - ",D66),IF(G66&lt;&gt;"",CONCATENATE("...",F66,".",G66,". - ",D66),CONCATENATE("..",F66,". - ",D66))),"")</f>
         <v/>
@@ -9359,7 +9395,7 @@
       </c>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="30">
       <c r="A67" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -9420,7 +9456,7 @@
       </c>
       <c r="W67" s="2"/>
     </row>
-    <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" ht="20">
       <c r="A68" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -9472,7 +9508,7 @@
       </c>
       <c r="W68" s="2"/>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" ht="15">
       <c r="A69" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -9527,7 +9563,7 @@
       </c>
       <c r="W69" s="2"/>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="15">
       <c r="A70" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -9582,7 +9618,7 @@
       </c>
       <c r="W70" s="2"/>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" ht="15">
       <c r="A71" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -9633,7 +9669,7 @@
       </c>
       <c r="W71" s="2"/>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" ht="15">
       <c r="A72" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -9688,7 +9724,7 @@
       </c>
       <c r="W72" s="2"/>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="15">
       <c r="A73" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -9743,7 +9779,7 @@
       </c>
       <c r="W73" s="2"/>
     </row>
-    <row r="74" spans="1:23" ht="84" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" ht="96">
       <c r="A74" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -9793,7 +9829,7 @@
       </c>
       <c r="W74" s="2"/>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="15">
       <c r="A75" s="42" t="str">
         <f t="shared" si="6"/>
         <v>..D. - Other Chronic</v>
@@ -9831,7 +9867,7 @@
       </c>
       <c r="W75" s="2"/>
     </row>
-    <row r="76" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" ht="40">
       <c r="A76" s="42" t="str">
         <f t="shared" si="6"/>
         <v>..B. - Cancer/Malignant neoplasms</v>
@@ -9886,7 +9922,7 @@
       </c>
       <c r="W76" s="2"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" ht="15">
       <c r="A77" s="42" t="str">
         <f t="shared" si="6"/>
         <v>...B.01. - Mouth and oropharynx cancers</v>
@@ -9942,7 +9978,7 @@
       </c>
       <c r="W77" s="2"/>
     </row>
-    <row r="78" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" ht="30">
       <c r="A78" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -10003,7 +10039,7 @@
       </c>
       <c r="W78" s="2"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="15">
       <c r="A79" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -10064,7 +10100,7 @@
       </c>
       <c r="W79" s="2"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="15">
       <c r="A80" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -10121,7 +10157,7 @@
       </c>
       <c r="W80" s="2"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" ht="15">
       <c r="A81" s="42" t="str">
         <f t="shared" si="6"/>
         <v>...B.02. - Esophagus cancer</v>
@@ -10185,7 +10221,7 @@
       </c>
       <c r="W81" s="2"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" ht="15">
       <c r="A82" s="42" t="str">
         <f t="shared" si="6"/>
         <v>...B.03. - Stomach cancer</v>
@@ -10251,7 +10287,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" ht="30">
       <c r="A83" s="42" t="str">
         <f t="shared" si="6"/>
         <v>...B.04. - Colon and rectum cancers</v>
@@ -10315,7 +10351,7 @@
       </c>
       <c r="W83" s="2"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" ht="15">
       <c r="A84" s="42" t="str">
         <f t="shared" si="6"/>
         <v>...B.05. - Liver cancer</v>
@@ -10379,7 +10415,7 @@
       </c>
       <c r="W84" s="2"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" ht="15">
       <c r="A85" s="42" t="str">
         <f t="shared" si="6"/>
         <v>...B.06. - Pancreas cancer</v>
@@ -10443,7 +10479,7 @@
       </c>
       <c r="W85" s="2"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" ht="30">
       <c r="A86" s="42" t="str">
         <f t="shared" si="6"/>
         <v>...B.07. - Trachea, bronchus and lung cancers</v>
@@ -10509,7 +10545,7 @@
       </c>
       <c r="W86" s="2"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" ht="15">
       <c r="A87" s="42" t="str">
         <f t="shared" si="6"/>
         <v>...B.08. - Melanoma and other skin cancers</v>
@@ -10565,7 +10601,7 @@
       </c>
       <c r="W87" s="2"/>
     </row>
-    <row r="88" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" ht="30">
       <c r="A88" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -10626,7 +10662,7 @@
       </c>
       <c r="W88" s="2"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" ht="15">
       <c r="A89" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -10687,7 +10723,7 @@
       </c>
       <c r="W89" s="2"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" ht="15">
       <c r="A90" s="42" t="str">
         <f t="shared" si="6"/>
         <v>...B.09. - Breast cancer</v>
@@ -10751,7 +10787,7 @@
       </c>
       <c r="W90" s="2"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" ht="15">
       <c r="A91" s="42" t="str">
         <f t="shared" si="6"/>
         <v>...B.10. - Uterine cancer</v>
@@ -10793,7 +10829,7 @@
       <c r="V91" s="43"/>
       <c r="W91" s="2"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" ht="15">
       <c r="A92" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -10854,7 +10890,7 @@
       </c>
       <c r="W92" s="2"/>
     </row>
-    <row r="93" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" ht="30">
       <c r="A93" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -10915,7 +10951,7 @@
       </c>
       <c r="W93" s="2"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" ht="15">
       <c r="A94" s="42" t="str">
         <f t="shared" si="6"/>
         <v>...B.11. - Ovary cancer</v>
@@ -10979,7 +11015,7 @@
       </c>
       <c r="W94" s="2"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" ht="15">
       <c r="A95" s="42" t="str">
         <f t="shared" si="6"/>
         <v>...B.12. - Prostate cancer</v>
@@ -11043,7 +11079,7 @@
       </c>
       <c r="W95" s="2"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" ht="15">
       <c r="A96" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -11104,7 +11140,7 @@
       </c>
       <c r="W96" s="2"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" ht="30">
       <c r="A97" s="42" t="str">
         <f t="shared" si="6"/>
         <v>...B.13. - Kidney, renal pelvis and ureter cancer</v>
@@ -11168,7 +11204,7 @@
       </c>
       <c r="W97" s="2"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" ht="15">
       <c r="A98" s="42" t="str">
         <f t="shared" si="6"/>
         <v>...B.14. - Bladder cancer</v>
@@ -11232,7 +11268,7 @@
       </c>
       <c r="W98" s="2"/>
     </row>
-    <row r="99" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" ht="30">
       <c r="A99" s="42" t="str">
         <f t="shared" si="6"/>
         <v>...B.15. - Brain and nervous system cancers</v>
@@ -11296,7 +11332,7 @@
       </c>
       <c r="W99" s="2"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" ht="30">
       <c r="A100" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -11357,7 +11393,7 @@
       </c>
       <c r="W100" s="2"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" ht="15">
       <c r="A101" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -11418,7 +11454,7 @@
       </c>
       <c r="W101" s="2"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" ht="15">
       <c r="A102" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -11479,7 +11515,7 @@
       </c>
       <c r="W102" s="2"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" ht="15">
       <c r="A103" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -11536,7 +11572,7 @@
       </c>
       <c r="W103" s="2"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" ht="15">
       <c r="A104" s="42" t="str">
         <f t="shared" si="6"/>
         <v>...B.16. - Lymphomas and multiple myeloma</v>
@@ -11593,7 +11629,7 @@
       </c>
       <c r="W104" s="2"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" ht="15">
       <c r="A105" s="42" t="str">
         <f t="shared" si="6"/>
         <v>....B.16.a. - Hodgkin lymphoma</v>
@@ -11655,7 +11691,7 @@
       </c>
       <c r="W105" s="2"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" ht="15">
       <c r="A106" s="42" t="str">
         <f t="shared" si="6"/>
         <v>....B.16.b. - Non-Hodgkin lymphoma</v>
@@ -11717,7 +11753,7 @@
       </c>
       <c r="W106" s="2"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" ht="15">
       <c r="A107" s="42" t="str">
         <f t="shared" si="6"/>
         <v>....B.16.c. - Multiple myeloma</v>
@@ -11779,7 +11815,7 @@
       </c>
       <c r="W107" s="2"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" ht="15">
       <c r="A108" s="42" t="str">
         <f t="shared" si="6"/>
         <v>...B.17. - Leukemia</v>
@@ -11839,7 +11875,7 @@
       </c>
       <c r="W108" s="2"/>
     </row>
-    <row r="109" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" ht="60">
       <c r="A109" s="42" t="str">
         <f t="shared" si="6"/>
         <v>...B.99. - Other malignant neoplasms</v>
@@ -11899,7 +11935,7 @@
       </c>
       <c r="W109" s="2"/>
     </row>
-    <row r="110" spans="1:23" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" ht="150">
       <c r="A110" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -11954,7 +11990,7 @@
       </c>
       <c r="W110" s="2"/>
     </row>
-    <row r="111" spans="1:23" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" ht="60">
       <c r="A111" s="42" t="str">
         <f t="shared" si="6"/>
         <v>...D.01. - Diabetes mellitus</v>
@@ -12024,7 +12060,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" ht="30">
       <c r="A112" s="42" t="str">
         <f t="shared" si="6"/>
         <v>...D.02. - Endocrine, blood, immune disorders</v>
@@ -12083,7 +12119,7 @@
       </c>
       <c r="W112" s="2"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" ht="15">
       <c r="A113" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -12140,7 +12176,7 @@
       </c>
       <c r="W113" s="2"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" ht="15">
       <c r="A114" s="42" t="str">
         <f t="shared" si="6"/>
         <v>...D.03. - Sickle cell disorders and trait</v>
@@ -12200,7 +12236,7 @@
       </c>
       <c r="W114" s="2"/>
     </row>
-    <row r="115" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" ht="30">
       <c r="A115" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -12257,7 +12293,7 @@
       </c>
       <c r="W115" s="2"/>
     </row>
-    <row r="116" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" ht="30">
       <c r="A116" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -12314,7 +12350,7 @@
       </c>
       <c r="W116" s="2"/>
     </row>
-    <row r="117" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" ht="30">
       <c r="A117" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -12370,7 +12406,7 @@
       </c>
       <c r="W117" s="2"/>
     </row>
-    <row r="118" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" ht="30">
       <c r="A118" s="42" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">...D.04. - Mental Health disorders </v>
@@ -12413,7 +12449,7 @@
       <c r="V118" s="43"/>
       <c r="W118" s="2"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" ht="15">
       <c r="A119" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -12452,7 +12488,7 @@
       <c r="V119" s="43"/>
       <c r="W119" s="2"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" ht="15">
       <c r="A120" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -12482,7 +12518,7 @@
       <c r="V120" s="43"/>
       <c r="W120" s="2"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" ht="15">
       <c r="A121" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -12528,7 +12564,7 @@
       </c>
       <c r="W121" s="2"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" ht="15">
       <c r="A122" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -12587,7 +12623,7 @@
       </c>
       <c r="W122" s="2"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" ht="15">
       <c r="A123" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -12646,7 +12682,7 @@
       </c>
       <c r="W123" s="2"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" ht="15">
       <c r="A124" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -12705,7 +12741,7 @@
       </c>
       <c r="W124" s="2"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" ht="15">
       <c r="A125" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -12768,7 +12804,7 @@
       </c>
       <c r="W125" s="2"/>
     </row>
-    <row r="126" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" ht="30">
       <c r="A126" s="42" t="str">
         <f t="shared" si="6"/>
         <v>....D.99.a. - Alcohol use disorders</v>
@@ -12834,7 +12870,7 @@
       </c>
       <c r="W126" s="2"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" ht="15">
       <c r="A127" s="42" t="str">
         <f t="shared" ref="A127:A187" si="12">IF(J127&lt;&gt;"",IF(H127&lt;&gt;"",CONCATENATE("....",F127,".",G127,".",H127,". - ",D127),IF(G127&lt;&gt;"",CONCATENATE("...",F127,".",G127,". - ",D127),CONCATENATE("..",F127,". - ",D127))),"")</f>
         <v/>
@@ -12889,7 +12925,7 @@
       </c>
       <c r="W127" s="2"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" ht="15">
       <c r="A128" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -12948,7 +12984,7 @@
       </c>
       <c r="W128" s="2"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" ht="15">
       <c r="A129" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -13003,7 +13039,7 @@
       </c>
       <c r="W129" s="2"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" ht="15">
       <c r="A130" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -13053,7 +13089,7 @@
       </c>
       <c r="W130" s="2"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" ht="30">
       <c r="A131" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -13108,7 +13144,7 @@
       </c>
       <c r="W131" s="2"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" ht="15">
       <c r="A132" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -13163,7 +13199,7 @@
       </c>
       <c r="W132" s="2"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" ht="15">
       <c r="A133" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -13218,7 +13254,7 @@
       </c>
       <c r="W133" s="2"/>
     </row>
-    <row r="134" spans="1:23" ht="33" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" ht="45">
       <c r="A134" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -13273,7 +13309,7 @@
       </c>
       <c r="W134" s="2"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" ht="15">
       <c r="A135" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -13329,7 +13365,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" ht="30">
       <c r="A136" s="42" t="str">
         <f t="shared" si="12"/>
         <v>...D.06. - Alzheimer’s disease and other dementias</v>
@@ -13391,7 +13427,7 @@
       </c>
       <c r="W136" s="2"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" ht="15">
       <c r="A137" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -13448,7 +13484,7 @@
       </c>
       <c r="W137" s="2"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" ht="15">
       <c r="A138" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -13505,7 +13541,7 @@
       </c>
       <c r="W138" s="2"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" ht="15">
       <c r="A139" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -13562,7 +13598,7 @@
       </c>
       <c r="W139" s="2"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" ht="15">
       <c r="A140" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -13615,7 +13651,7 @@
       </c>
       <c r="W140" s="2"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" ht="15">
       <c r="A141" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -13668,7 +13704,7 @@
       </c>
       <c r="W141" s="2"/>
     </row>
-    <row r="142" spans="1:23" ht="51" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" ht="60">
       <c r="A142" s="42" t="str">
         <f t="shared" si="12"/>
         <v>...D.07. - Other neurological conditions</v>
@@ -13732,7 +13768,7 @@
       </c>
       <c r="W142" s="2"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" ht="15">
       <c r="A143" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -13784,7 +13820,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" ht="15">
       <c r="A144" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -13837,7 +13873,7 @@
       </c>
       <c r="W144" s="2"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" ht="15">
       <c r="A145" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -13890,7 +13926,7 @@
       </c>
       <c r="W145" s="2"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" ht="15">
       <c r="A146" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -13943,7 +13979,7 @@
       </c>
       <c r="W146" s="2"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" ht="15">
       <c r="A147" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -13996,7 +14032,7 @@
       </c>
       <c r="W147" s="2"/>
     </row>
-    <row r="148" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" ht="15">
       <c r="A148" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14049,7 +14085,7 @@
       </c>
       <c r="W148" s="2"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" ht="15">
       <c r="A149" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14102,7 +14138,7 @@
       </c>
       <c r="W149" s="2"/>
     </row>
-    <row r="150" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" ht="30">
       <c r="A150" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14157,7 +14193,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="42" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" ht="56">
       <c r="A151" s="42" t="str">
         <f t="shared" si="12"/>
         <v>..C. - Cardiovascular diseases</v>
@@ -14212,7 +14248,7 @@
       </c>
       <c r="W151" s="2"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" ht="15">
       <c r="A152" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14273,7 +14309,7 @@
       </c>
       <c r="W152" s="2"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" ht="15">
       <c r="A153" s="42" t="str">
         <f t="shared" si="12"/>
         <v>...C.01. - Hypertensive heart disease</v>
@@ -14337,7 +14373,7 @@
       </c>
       <c r="W153" s="2"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" ht="15">
       <c r="A154" s="42" t="str">
         <f t="shared" si="12"/>
         <v>...C.02. - Ischemic heart disease</v>
@@ -14401,7 +14437,7 @@
       </c>
       <c r="W154" s="2"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" ht="15">
       <c r="A155" s="42" t="str">
         <f t="shared" si="12"/>
         <v>...C.03. - Stroke</v>
@@ -14469,7 +14505,7 @@
       </c>
       <c r="W155" s="2"/>
     </row>
-    <row r="156" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" ht="30">
       <c r="A156" s="42" t="str">
         <f t="shared" si="12"/>
         <v>...C.04. - Cardiomyopathy, myocarditis, endocarditis</v>
@@ -14537,7 +14573,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" ht="30">
       <c r="A157" s="42" t="str">
         <f t="shared" si="12"/>
         <v>...C.05. -  Congestive heart failure</v>
@@ -14589,7 +14625,7 @@
       <c r="V157" s="49"/>
       <c r="W157" s="2"/>
     </row>
-    <row r="158" spans="1:23" ht="51" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" ht="60">
       <c r="A158" s="42" t="str">
         <f t="shared" si="12"/>
         <v>...C.99. - Other or unspecified cardiovascular diseases</v>
@@ -14661,7 +14697,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" ht="15">
       <c r="A159" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14715,7 +14751,7 @@
       </c>
       <c r="W159" s="2"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" ht="30">
       <c r="A160" s="42" t="str">
         <f t="shared" si="12"/>
         <v>...D.66. - Chronic obstructive pulmonary disease</v>
@@ -14777,7 +14813,7 @@
       </c>
       <c r="W160" s="2"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" ht="15">
       <c r="A161" s="42" t="str">
         <f t="shared" si="12"/>
         <v>...D.67. - Asthma</v>
@@ -14837,7 +14873,7 @@
       </c>
       <c r="W161" s="2"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" ht="15">
       <c r="A162" s="42" t="str">
         <f t="shared" si="12"/>
         <v>...D.68. - Other respiratory diseases</v>
@@ -14897,7 +14933,7 @@
       </c>
       <c r="W162" s="2"/>
     </row>
-    <row r="163" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" ht="30">
       <c r="A163" s="42" t="str">
         <f t="shared" si="12"/>
         <v>...D.09. - Digestive diseases (excluding cirrhosis)</v>
@@ -14960,7 +14996,7 @@
       </c>
       <c r="W163" s="2"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" ht="15">
       <c r="A164" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -15017,7 +15053,7 @@
       </c>
       <c r="W164" s="2"/>
     </row>
-    <row r="165" spans="1:23" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" s="46" customFormat="1" ht="45">
       <c r="A165" s="42" t="str">
         <f t="shared" si="12"/>
         <v>...D.11. - Cirrhosis of the liver</v>
@@ -15081,7 +15117,7 @@
       </c>
       <c r="W165" s="2"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" ht="15">
       <c r="A166" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -15138,7 +15174,7 @@
       </c>
       <c r="W166" s="2"/>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" ht="15">
       <c r="A167" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -15195,7 +15231,7 @@
       </c>
       <c r="W167" s="2"/>
     </row>
-    <row r="168" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" ht="30">
       <c r="A168" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -15252,7 +15288,7 @@
       </c>
       <c r="W168" s="2"/>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" ht="15">
       <c r="A169" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -15309,7 +15345,7 @@
       </c>
       <c r="W169" s="2"/>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" ht="15">
       <c r="A170" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -15366,7 +15402,7 @@
       </c>
       <c r="W170" s="2"/>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" ht="15">
       <c r="A171" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -15423,7 +15459,7 @@
       </c>
       <c r="W171" s="2"/>
     </row>
-    <row r="172" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" ht="45">
       <c r="A172" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -15484,7 +15520,7 @@
       </c>
       <c r="W172" s="2"/>
     </row>
-    <row r="173" spans="1:23" ht="33" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" ht="30">
       <c r="A173" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -15536,7 +15572,7 @@
       </c>
       <c r="W173" s="2"/>
     </row>
-    <row r="174" spans="1:23" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" ht="30">
       <c r="A174" s="42" t="str">
         <f t="shared" si="12"/>
         <v>...D.10. - Kidney diseases</v>
@@ -15597,7 +15633,7 @@
       </c>
       <c r="W174" s="2"/>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" ht="15">
       <c r="A175" s="42" t="str">
         <f t="shared" si="12"/>
         <v>....D.10.a. - Acute glomerulonephritis</v>
@@ -15661,7 +15697,7 @@
       </c>
       <c r="W175" s="2"/>
     </row>
-    <row r="176" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" ht="30">
       <c r="A176" s="42" t="str">
         <f t="shared" si="12"/>
         <v>....D.10.b. - Chronic kidney disease due to diabetes</v>
@@ -15725,7 +15761,7 @@
       </c>
       <c r="W176" s="2"/>
     </row>
-    <row r="177" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" ht="15">
       <c r="A177" s="42" t="str">
         <f t="shared" si="12"/>
         <v>....D.10.c. - Other chronic kidney disease</v>
@@ -15789,7 +15825,7 @@
       </c>
       <c r="W177" s="2"/>
     </row>
-    <row r="178" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" ht="15">
       <c r="A178" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -15842,7 +15878,7 @@
       </c>
       <c r="W178" s="2"/>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" ht="15">
       <c r="A179" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -15899,7 +15935,7 @@
       </c>
       <c r="W179" s="2"/>
     </row>
-    <row r="180" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" ht="32">
       <c r="A180" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -15956,7 +15992,7 @@
       </c>
       <c r="W180" s="2"/>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" ht="15">
       <c r="A181" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -16013,7 +16049,7 @@
       </c>
       <c r="W181" s="2"/>
     </row>
-    <row r="182" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" ht="16">
       <c r="A182" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -16070,7 +16106,7 @@
       </c>
       <c r="W182" s="2"/>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" ht="15">
       <c r="A183" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -16125,7 +16161,7 @@
       </c>
       <c r="W183" s="2"/>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" ht="16">
       <c r="A184" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -16181,7 +16217,7 @@
       </c>
       <c r="W184" s="2"/>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" ht="15">
       <c r="A185" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -16238,7 +16274,7 @@
       </c>
       <c r="W185" s="2"/>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" ht="15">
       <c r="A186" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -16291,7 +16327,7 @@
       </c>
       <c r="W186" s="2"/>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" ht="15">
       <c r="A187" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -16344,7 +16380,7 @@
       </c>
       <c r="W187" s="2"/>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" ht="15">
       <c r="A188" s="42" t="str">
         <f t="shared" ref="A188:A232" si="20">IF(J188&lt;&gt;"",IF(H188&lt;&gt;"",CONCATENATE("....",F188,".",G188,".",H188,". - ",D188),IF(G188&lt;&gt;"",CONCATENATE("...",F188,".",G188,". - ",D188),CONCATENATE("..",F188,". - ",D188))),"")</f>
         <v/>
@@ -16397,7 +16433,7 @@
       </c>
       <c r="W188" s="2"/>
     </row>
-    <row r="189" spans="1:23" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" ht="60">
       <c r="A189" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -16458,7 +16494,7 @@
       </c>
       <c r="W189" s="2"/>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" ht="15">
       <c r="A190" s="42" t="str">
         <f t="shared" si="20"/>
         <v>...D.12. - Congenital anomalies</v>
@@ -16517,7 +16553,7 @@
       </c>
       <c r="W190" s="2"/>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" ht="15">
       <c r="A191" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -16574,7 +16610,7 @@
       </c>
       <c r="W191" s="2"/>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" ht="15">
       <c r="A192" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -16631,7 +16667,7 @@
       </c>
       <c r="W192" s="2"/>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" ht="15">
       <c r="A193" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -16688,7 +16724,7 @@
       </c>
       <c r="W193" s="2"/>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" ht="15">
       <c r="A194" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -16745,7 +16781,7 @@
       </c>
       <c r="W194" s="2"/>
     </row>
-    <row r="195" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" ht="15">
       <c r="A195" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -16802,7 +16838,7 @@
       </c>
       <c r="W195" s="2"/>
     </row>
-    <row r="196" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" ht="30">
       <c r="A196" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -16859,7 +16895,7 @@
       </c>
       <c r="W196" s="2"/>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" ht="15">
       <c r="A197" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -16909,7 +16945,7 @@
       </c>
       <c r="W197" s="2"/>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" ht="15">
       <c r="A198" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -16962,7 +16998,7 @@
       </c>
       <c r="W198" s="2"/>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" ht="15">
       <c r="A199" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -17015,7 +17051,7 @@
       </c>
       <c r="W199" s="2"/>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" ht="15">
       <c r="A200" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -17068,7 +17104,7 @@
       </c>
       <c r="W200" s="2"/>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" ht="15">
       <c r="A201" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -17121,7 +17157,7 @@
       </c>
       <c r="W201" s="2"/>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" ht="15">
       <c r="A202" s="42" t="str">
         <f>IF(J202&lt;&gt;"",IF(H202&lt;&gt;"",CONCATENATE("....",F202,".",G202,".",H202,". - ",D202),IF(G202&lt;&gt;"",CONCATENATE("...",F202,".",G202,". - ",D202),CONCATENATE("..",F202,". - ",D202))),"")</f>
         <v>...D.99. - Other Chronic Conditions</v>
@@ -17141,7 +17177,7 @@
         <v>D99</v>
       </c>
     </row>
-    <row r="203" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" ht="32">
       <c r="A203" s="42" t="str">
         <f t="shared" si="20"/>
         <v>..E. - Injuries</v>
@@ -17196,7 +17232,7 @@
       </c>
       <c r="W203" s="2"/>
     </row>
-    <row r="204" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" ht="40">
       <c r="A204" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -17250,7 +17286,7 @@
       </c>
       <c r="W204" s="2"/>
     </row>
-    <row r="205" spans="1:23" ht="36" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" ht="48">
       <c r="A205" s="42" t="str">
         <f t="shared" si="20"/>
         <v>...E.01. - Road injury</v>
@@ -17314,7 +17350,7 @@
       </c>
       <c r="W205" s="2"/>
     </row>
-    <row r="206" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" ht="30">
       <c r="A206" s="42" t="str">
         <f t="shared" si="20"/>
         <v>...E.02. - Drug overdose (poisoning/substance use disorders)</v>
@@ -17364,7 +17400,7 @@
       <c r="V206" s="43"/>
       <c r="W206" s="2"/>
     </row>
-    <row r="207" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" ht="16">
       <c r="A207" s="42" t="str">
         <f t="shared" ref="A207:A212" si="24">IF(J207&lt;&gt;"",IF(H207&lt;&gt;"",CONCATENATE("....",F207,".",G207,".",H207,". - ",D207),IF(G207&lt;&gt;"",CONCATENATE("...",F207,".",G207,". - ",D207),CONCATENATE("..",F207,". - ",D207))),"")</f>
         <v/>
@@ -17414,7 +17450,7 @@
       </c>
       <c r="W207" s="2"/>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" ht="15">
       <c r="A208" s="42" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -17471,7 +17507,7 @@
       </c>
       <c r="W208" s="2"/>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" ht="15">
       <c r="A209" s="42" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -17528,7 +17564,7 @@
       </c>
       <c r="W209" s="2"/>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" ht="15">
       <c r="A210" s="42" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -17580,7 +17616,7 @@
       </c>
       <c r="W210" s="2"/>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23" ht="15">
       <c r="A211" s="42" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -17637,7 +17673,7 @@
       </c>
       <c r="W211" s="2"/>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23" ht="15">
       <c r="A212" s="42" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -17700,7 +17736,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="213" spans="1:23" ht="51" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" ht="45">
       <c r="A213" s="42" t="str">
         <f t="shared" si="20"/>
         <v>...E.03. - Poisonings (non-drug)</v>
@@ -17762,7 +17798,7 @@
       </c>
       <c r="W213" s="2"/>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" ht="15">
       <c r="A214" s="42" t="str">
         <f t="shared" si="20"/>
         <v>...E.04. - Falls</v>
@@ -17824,7 +17860,7 @@
       </c>
       <c r="W214" s="2"/>
     </row>
-    <row r="215" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" ht="15">
       <c r="A215" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -17879,7 +17915,7 @@
       </c>
       <c r="W215" s="2"/>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" ht="15">
       <c r="A216" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -17936,7 +17972,7 @@
       </c>
       <c r="W216" s="2"/>
     </row>
-    <row r="217" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" ht="45">
       <c r="A217" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -17993,7 +18029,7 @@
       </c>
       <c r="W217" s="2"/>
     </row>
-    <row r="218" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" ht="30">
       <c r="A218" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -18040,7 +18076,7 @@
       <c r="V218" s="43"/>
       <c r="W218" s="2"/>
     </row>
-    <row r="219" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23" ht="30">
       <c r="A219" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -18097,7 +18133,7 @@
       </c>
       <c r="W219" s="2"/>
     </row>
-    <row r="220" spans="1:23" ht="51" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" ht="60">
       <c r="A220" s="42" t="str">
         <f t="shared" si="20"/>
         <v>...E.05. - Other unintentional injuries</v>
@@ -18163,7 +18199,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="221" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:23" ht="15">
       <c r="A221" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -18213,7 +18249,7 @@
       </c>
       <c r="W221" s="2"/>
     </row>
-    <row r="222" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:23" ht="30">
       <c r="A222" s="42" t="str">
         <f t="shared" si="20"/>
         <v>...E.07. - Suicide/Self-harm</v>
@@ -18277,7 +18313,7 @@
       </c>
       <c r="W222" s="2"/>
     </row>
-    <row r="223" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:23" ht="30">
       <c r="A223" s="42" t="str">
         <f t="shared" si="20"/>
         <v>...E.08. - Homicide/Interpersonal violence</v>
@@ -18334,7 +18370,7 @@
       </c>
       <c r="W223" s="2"/>
     </row>
-    <row r="224" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" ht="15">
       <c r="A224" s="42" t="str">
         <f t="shared" si="20"/>
         <v>....E.08.a. - Homicide excluding legal intervention</v>
@@ -18382,7 +18418,7 @@
       <c r="V224" s="43"/>
       <c r="W224" s="2"/>
     </row>
-    <row r="225" spans="1:23" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:23" ht="43.5" customHeight="1">
       <c r="A225" s="42" t="str">
         <f t="shared" si="20"/>
         <v>....E.08.b. - Legal intervention</v>
@@ -18432,7 +18468,7 @@
       <c r="V225" s="43"/>
       <c r="W225" s="2"/>
     </row>
-    <row r="226" spans="1:23" ht="102" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:23" ht="105">
       <c r="A226" s="42" t="str">
         <f t="shared" si="20"/>
         <v>....E.08.c. - Execution, War, Terrorism</v>
@@ -18496,7 +18532,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="227" spans="1:23" ht="51" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:23" ht="60">
       <c r="A227" s="42" t="str">
         <f t="shared" si="20"/>
         <v>...E.99. - Injuries of unknown intent (e.g., unintentional or self-harm), including overdoses and deaths by firearm</v>
@@ -18538,7 +18574,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="228" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:23" ht="30">
       <c r="A228" s="42" t="str">
         <f t="shared" si="20"/>
         <v>...Z.01. - Symptoms, signs and ill-defined conditions, not elsewhere classified</v>
@@ -18576,7 +18612,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="229" spans="1:23" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" ht="60">
       <c r="A229" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -18608,7 +18644,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:23" ht="15">
       <c r="A230" s="42" t="str">
         <f t="shared" si="20"/>
         <v>...Z.02. - Unknown/Missing Value</v>
@@ -18628,7 +18664,7 @@
         <v>Z02</v>
       </c>
     </row>
-    <row r="231" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:23" ht="30">
       <c r="A231" s="42" t="str">
         <f t="shared" si="20"/>
         <v>...Z.03. - Code does not map</v>
@@ -18651,7 +18687,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:23" ht="15">
       <c r="A232" s="42" t="str">
         <f t="shared" si="20"/>
         <v>..Z. - Unknown/Missing Value</v>
@@ -18668,13 +18704,13 @@
         <v>Z</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:23" ht="15">
       <c r="K234" s="16" t="s">
         <v>950</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W226"/>
+  <autoFilter ref="A1:W226" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -18687,23 +18723,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="64.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="58.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="26.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="65.1640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="64.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="58.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17">
       <c r="A1" s="7" t="s">
         <v>933</v>
       </c>
@@ -18717,7 +18753,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>761</v>
       </c>
@@ -18727,7 +18763,7 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>762</v>
       </c>
@@ -18739,7 +18775,7 @@
       </c>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>749</v>
       </c>
@@ -18749,7 +18785,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>750</v>
       </c>
@@ -18759,7 +18795,7 @@
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>751</v>
       </c>
@@ -18769,7 +18805,7 @@
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>752</v>
       </c>
@@ -18779,7 +18815,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="30" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>753</v>
       </c>
@@ -18789,7 +18825,7 @@
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="30" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>754</v>
       </c>
@@ -18799,7 +18835,7 @@
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="30" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>755</v>
       </c>
@@ -18809,7 +18845,7 @@
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
     </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="30" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>756</v>
       </c>
@@ -18819,7 +18855,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
     </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="30" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>763</v>
       </c>
@@ -18831,7 +18867,7 @@
       </c>
       <c r="D12" s="12"/>
     </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="30" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>384</v>
       </c>
@@ -18841,7 +18877,7 @@
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="30" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>759</v>
       </c>
@@ -18853,7 +18889,7 @@
       </c>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="30" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>509</v>
       </c>
@@ -18865,7 +18901,7 @@
       </c>
       <c r="D15" s="12"/>
     </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>760</v>
       </c>
@@ -18879,10 +18915,10 @@
         <v>879</v>
       </c>
     </row>
-    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="30" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -18895,26 +18931,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:J19"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="76"/>
-    <col min="2" max="2" width="10.42578125" style="76" customWidth="1"/>
-    <col min="3" max="3" width="126.7109375" style="76" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="76" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="76" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" style="76" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="76" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="76"/>
+    <col min="1" max="1" width="9.1640625" style="76"/>
+    <col min="2" max="2" width="10.5" style="76" customWidth="1"/>
+    <col min="3" max="3" width="126.6640625" style="76" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="76" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="76" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5" style="76" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="76" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="76"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10">
       <c r="B2" s="76" t="s">
         <v>1419</v>
       </c>
@@ -18937,7 +18973,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10">
       <c r="B3" s="76" t="s">
         <v>1420</v>
       </c>
@@ -18957,7 +18993,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10">
       <c r="B4" s="76" t="s">
         <v>1421</v>
       </c>
@@ -18965,7 +19001,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10">
       <c r="C6" s="76" t="s">
         <v>1424</v>
       </c>
@@ -18976,7 +19012,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10">
       <c r="C7" s="76" t="s">
         <v>1426</v>
       </c>
@@ -18990,7 +19026,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10">
       <c r="C8" s="76" t="s">
         <v>1428</v>
       </c>
@@ -19004,7 +19040,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10">
       <c r="C9" s="76" t="s">
         <v>1430</v>
       </c>
@@ -19018,7 +19054,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10">
       <c r="C10" s="76" t="s">
         <v>1432</v>
       </c>
@@ -19032,14 +19068,14 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="45">
       <c r="B12" s="42" t="str">
         <f>IF([1]Sheet1!H1&lt;&gt;"",IF([1]Sheet1!F1&lt;&gt;"",CONCATENATE("....",[1]Sheet1!D1,".",[1]Sheet1!E1,".",[1]Sheet1!F1,". - ",[1]Sheet1!B1),IF([1]Sheet1!E1&lt;&gt;"",CONCATENATE("...",[1]Sheet1!D1,".",[1]Sheet1!E1,". - ",[1]Sheet1!B1),CONCATENATE("..",[1]Sheet1!D1,". - ",[1]Sheet1!B1))),"")</f>
         <v>...D.05. - Substance use disorders</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="2:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="45">
       <c r="B13" s="42" t="str">
         <f>IF([1]Sheet1!H2&lt;&gt;"",IF([1]Sheet1!F2&lt;&gt;"",CONCATENATE("....",[1]Sheet1!D2,".",[1]Sheet1!E2,".",[1]Sheet1!F2,". - ",[1]Sheet1!B2),IF([1]Sheet1!E2&lt;&gt;"",CONCATENATE("...",[1]Sheet1!D2,".",[1]Sheet1!E2,". - ",[1]Sheet1!B2),CONCATENATE("..",[1]Sheet1!D2,". - ",[1]Sheet1!B2))),"")</f>
         <v>....D.05.a. - Alcohol use disorders</v>
@@ -19048,7 +19084,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10">
       <c r="B14" s="42" t="str">
         <f>IF([1]Sheet1!H3&lt;&gt;"",IF([1]Sheet1!F3&lt;&gt;"",CONCATENATE("....",[1]Sheet1!D3,".",[1]Sheet1!E3,".",[1]Sheet1!F3,". - ",[1]Sheet1!B3),IF([1]Sheet1!E3&lt;&gt;"",CONCATENATE("...",[1]Sheet1!D3,".",[1]Sheet1!E3,". - ",[1]Sheet1!B3),CONCATENATE("..",[1]Sheet1!D3,". - ",[1]Sheet1!B3))),"")</f>
         <v/>
@@ -19057,7 +19093,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="45">
       <c r="B15" s="42" t="str">
         <f>IF([1]Sheet1!H4&lt;&gt;"",IF([1]Sheet1!F4&lt;&gt;"",CONCATENATE("....",[1]Sheet1!D4,".",[1]Sheet1!E4,".",[1]Sheet1!F4,". - ",[1]Sheet1!B4),IF([1]Sheet1!E4&lt;&gt;"",CONCATENATE("...",[1]Sheet1!D4,".",[1]Sheet1!E4,". - ",[1]Sheet1!B4),CONCATENATE("..",[1]Sheet1!D4,". - ",[1]Sheet1!B4))),"")</f>
         <v>....D.05.b. - Opioid use disorders</v>
@@ -19066,7 +19102,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="45">
       <c r="B16" s="42" t="str">
         <f>IF([1]Sheet1!H5&lt;&gt;"",IF([1]Sheet1!F5&lt;&gt;"",CONCATENATE("....",[1]Sheet1!D5,".",[1]Sheet1!E5,".",[1]Sheet1!F5,". - ",[1]Sheet1!B5),IF([1]Sheet1!E5&lt;&gt;"",CONCATENATE("...",[1]Sheet1!D5,".",[1]Sheet1!E5,". - ",[1]Sheet1!B5),CONCATENATE("..",[1]Sheet1!D5,". - ",[1]Sheet1!B5))),"")</f>
         <v>....D.05.c. - Cocaine use disorders</v>
@@ -19075,7 +19111,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="51" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="60">
       <c r="B17" s="42" t="str">
         <f>IF([1]Sheet1!H6&lt;&gt;"",IF([1]Sheet1!F6&lt;&gt;"",CONCATENATE("....",[1]Sheet1!D6,".",[1]Sheet1!E6,".",[1]Sheet1!F6,". - ",[1]Sheet1!B6),IF([1]Sheet1!E6&lt;&gt;"",CONCATENATE("...",[1]Sheet1!D6,".",[1]Sheet1!E6,". - ",[1]Sheet1!B6),CONCATENATE("..",[1]Sheet1!D6,". - ",[1]Sheet1!B6))),"")</f>
         <v>....D.05.d. - Amphetamine use disorders</v>
@@ -19084,7 +19120,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3">
       <c r="B18" s="42" t="str">
         <f>IF([1]Sheet1!H7&lt;&gt;"",IF([1]Sheet1!F7&lt;&gt;"",CONCATENATE("....",[1]Sheet1!D7,".",[1]Sheet1!E7,".",[1]Sheet1!F7,". - ",[1]Sheet1!B7),IF([1]Sheet1!E7&lt;&gt;"",CONCATENATE("...",[1]Sheet1!D7,".",[1]Sheet1!E7,". - ",[1]Sheet1!B7),CONCATENATE("..",[1]Sheet1!D7,". - ",[1]Sheet1!B7))),"")</f>
         <v/>
@@ -19093,7 +19129,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="B19" s="42" t="str">
         <f>IF([1]Sheet1!H8&lt;&gt;"",IF([1]Sheet1!F8&lt;&gt;"",CONCATENATE("....",[1]Sheet1!D8,".",[1]Sheet1!E8,".",[1]Sheet1!F8,". - ",[1]Sheet1!B8),IF([1]Sheet1!E8&lt;&gt;"",CONCATENATE("...",[1]Sheet1!D8,".",[1]Sheet1!E8,". - ",[1]Sheet1!B8),CONCATENATE("..",[1]Sheet1!D8,". - ",[1]Sheet1!B8))),"")</f>
         <v/>
